--- a/doc/外部設計/最新版/DB定義書ver1.8.xlsx
+++ b/doc/外部設計/最新版/DB定義書ver1.8.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dojo6\doc\外部設計\最新版\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{361D6CC8-611A-4E3B-ACC8-753853825035}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8E63B0C-5F05-4832-85E6-CE36A7BF2A9F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3675" yWindow="405" windowWidth="15375" windowHeight="7875" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="13550" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="テーブル一覧" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="96">
   <si>
     <t>テーブル一覧</t>
     <rPh sb="4" eb="6">
@@ -1359,29 +1359,35 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="21" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
@@ -1390,6 +1396,12 @@
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1400,18 +1412,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2458,8 +2458,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A80B9A1C-8A09-4D36-B8F3-94CC19E4076C}">
   <dimension ref="A1:L29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10:A22"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2638,9 +2638,7 @@
       </c>
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
-      <c r="H12" s="1" t="s">
-        <v>35</v>
-      </c>
+      <c r="H12" s="1"/>
       <c r="I12" s="1">
         <v>0</v>
       </c>
@@ -3056,164 +3054,164 @@
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A11" s="49">
+      <c r="A11" s="44">
         <v>2</v>
       </c>
-      <c r="B11" s="48" t="s">
+      <c r="B11" s="43" t="s">
         <v>59</v>
       </c>
-      <c r="C11" s="48" t="s">
+      <c r="C11" s="43" t="s">
         <v>58</v>
       </c>
-      <c r="D11" s="48" t="s">
+      <c r="D11" s="43" t="s">
         <v>46</v>
       </c>
-      <c r="E11" s="44">
+      <c r="E11" s="42">
         <v>8</v>
       </c>
-      <c r="F11" s="45"/>
-      <c r="G11" s="45"/>
-      <c r="H11" s="45"/>
-      <c r="I11" s="44">
+      <c r="F11" s="47"/>
+      <c r="G11" s="47"/>
+      <c r="H11" s="47"/>
+      <c r="I11" s="42">
         <v>0</v>
       </c>
-      <c r="J11" s="42" t="s">
+      <c r="J11" s="48" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A12" s="49"/>
-      <c r="B12" s="48"/>
-      <c r="C12" s="48"/>
-      <c r="D12" s="48"/>
-      <c r="E12" s="44"/>
-      <c r="F12" s="45"/>
-      <c r="G12" s="45"/>
-      <c r="H12" s="45"/>
-      <c r="I12" s="44"/>
-      <c r="J12" s="43"/>
+      <c r="A12" s="44"/>
+      <c r="B12" s="43"/>
+      <c r="C12" s="43"/>
+      <c r="D12" s="43"/>
+      <c r="E12" s="42"/>
+      <c r="F12" s="47"/>
+      <c r="G12" s="47"/>
+      <c r="H12" s="47"/>
+      <c r="I12" s="42"/>
+      <c r="J12" s="49"/>
       <c r="L12" t="str">
         <f>C12&amp;" "&amp;D12&amp;" "&amp;IF(E12&lt;&gt;"","("&amp;E12&amp;")","")&amp;IF(C13&lt;&gt;"",",","")</f>
         <v xml:space="preserve">  </v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A13" s="49"/>
-      <c r="B13" s="48"/>
-      <c r="C13" s="48"/>
-      <c r="D13" s="48"/>
-      <c r="E13" s="44"/>
-      <c r="F13" s="45"/>
-      <c r="G13" s="45"/>
-      <c r="H13" s="45"/>
-      <c r="I13" s="44"/>
-      <c r="J13" s="43"/>
+      <c r="A13" s="44"/>
+      <c r="B13" s="43"/>
+      <c r="C13" s="43"/>
+      <c r="D13" s="43"/>
+      <c r="E13" s="42"/>
+      <c r="F13" s="47"/>
+      <c r="G13" s="47"/>
+      <c r="H13" s="47"/>
+      <c r="I13" s="42"/>
+      <c r="J13" s="49"/>
       <c r="L13" t="str">
         <f>C13&amp;" "&amp;D13&amp;" "&amp;IF(E13&lt;&gt;"","("&amp;E13&amp;")","")&amp;IF(C14&lt;&gt;"",",","")</f>
         <v xml:space="preserve">  </v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A14" s="49"/>
-      <c r="B14" s="48"/>
-      <c r="C14" s="48"/>
-      <c r="D14" s="48"/>
-      <c r="E14" s="44"/>
-      <c r="F14" s="45"/>
-      <c r="G14" s="45"/>
-      <c r="H14" s="45"/>
-      <c r="I14" s="44"/>
-      <c r="J14" s="43"/>
+      <c r="A14" s="44"/>
+      <c r="B14" s="43"/>
+      <c r="C14" s="43"/>
+      <c r="D14" s="43"/>
+      <c r="E14" s="42"/>
+      <c r="F14" s="47"/>
+      <c r="G14" s="47"/>
+      <c r="H14" s="47"/>
+      <c r="I14" s="42"/>
+      <c r="J14" s="49"/>
       <c r="L14" t="str">
         <f t="shared" ref="L14:L28" si="0">C14&amp;" "&amp;D14&amp;" "&amp;IF(E14&lt;&gt;"","("&amp;E14&amp;")","")&amp;IF(C15&lt;&gt;"",",","")</f>
         <v xml:space="preserve">  </v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A15" s="49"/>
-      <c r="B15" s="48"/>
-      <c r="C15" s="48"/>
-      <c r="D15" s="48"/>
-      <c r="E15" s="44"/>
-      <c r="F15" s="45"/>
-      <c r="G15" s="45"/>
-      <c r="H15" s="45"/>
-      <c r="I15" s="44"/>
-      <c r="J15" s="43"/>
+      <c r="A15" s="44"/>
+      <c r="B15" s="43"/>
+      <c r="C15" s="43"/>
+      <c r="D15" s="43"/>
+      <c r="E15" s="42"/>
+      <c r="F15" s="47"/>
+      <c r="G15" s="47"/>
+      <c r="H15" s="47"/>
+      <c r="I15" s="42"/>
+      <c r="J15" s="49"/>
       <c r="L15" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">  </v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A16" s="49"/>
-      <c r="B16" s="48"/>
-      <c r="C16" s="48"/>
-      <c r="D16" s="48"/>
-      <c r="E16" s="44"/>
-      <c r="F16" s="45"/>
-      <c r="G16" s="45"/>
-      <c r="H16" s="45"/>
-      <c r="I16" s="44"/>
-      <c r="J16" s="43"/>
+      <c r="A16" s="44"/>
+      <c r="B16" s="43"/>
+      <c r="C16" s="43"/>
+      <c r="D16" s="43"/>
+      <c r="E16" s="42"/>
+      <c r="F16" s="47"/>
+      <c r="G16" s="47"/>
+      <c r="H16" s="47"/>
+      <c r="I16" s="42"/>
+      <c r="J16" s="49"/>
       <c r="L16" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">  ,</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A17" s="49">
+      <c r="A17" s="44">
         <v>3</v>
       </c>
-      <c r="B17" s="48" t="s">
+      <c r="B17" s="43" t="s">
         <v>60</v>
       </c>
-      <c r="C17" s="48" t="s">
+      <c r="C17" s="43" t="s">
         <v>61</v>
       </c>
-      <c r="D17" s="48" t="s">
+      <c r="D17" s="43" t="s">
         <v>46</v>
       </c>
-      <c r="E17" s="44">
+      <c r="E17" s="42">
         <v>8</v>
       </c>
-      <c r="F17" s="45"/>
-      <c r="G17" s="45"/>
-      <c r="H17" s="45"/>
-      <c r="I17" s="44">
+      <c r="F17" s="47"/>
+      <c r="G17" s="47"/>
+      <c r="H17" s="47"/>
+      <c r="I17" s="42">
         <v>0</v>
       </c>
-      <c r="J17" s="46" t="s">
+      <c r="J17" s="45" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A18" s="49"/>
-      <c r="B18" s="48"/>
-      <c r="C18" s="48"/>
-      <c r="D18" s="48"/>
-      <c r="E18" s="44"/>
-      <c r="F18" s="45"/>
-      <c r="G18" s="45"/>
-      <c r="H18" s="45"/>
-      <c r="I18" s="44"/>
-      <c r="J18" s="47"/>
+      <c r="A18" s="44"/>
+      <c r="B18" s="43"/>
+      <c r="C18" s="43"/>
+      <c r="D18" s="43"/>
+      <c r="E18" s="42"/>
+      <c r="F18" s="47"/>
+      <c r="G18" s="47"/>
+      <c r="H18" s="47"/>
+      <c r="I18" s="42"/>
+      <c r="J18" s="46"/>
       <c r="L18" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">  </v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A19" s="49"/>
-      <c r="B19" s="48"/>
-      <c r="C19" s="48"/>
-      <c r="D19" s="48"/>
-      <c r="E19" s="44"/>
-      <c r="F19" s="45"/>
-      <c r="G19" s="45"/>
-      <c r="H19" s="45"/>
-      <c r="I19" s="44"/>
-      <c r="J19" s="47"/>
+      <c r="A19" s="44"/>
+      <c r="B19" s="43"/>
+      <c r="C19" s="43"/>
+      <c r="D19" s="43"/>
+      <c r="E19" s="42"/>
+      <c r="F19" s="47"/>
+      <c r="G19" s="47"/>
+      <c r="H19" s="47"/>
+      <c r="I19" s="42"/>
+      <c r="J19" s="46"/>
       <c r="L19" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">  ,</v>
@@ -3320,6 +3318,16 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="J11:J16"/>
+    <mergeCell ref="I11:I16"/>
+    <mergeCell ref="H11:H16"/>
+    <mergeCell ref="G11:G16"/>
+    <mergeCell ref="F11:F16"/>
+    <mergeCell ref="J17:J19"/>
+    <mergeCell ref="I17:I19"/>
+    <mergeCell ref="H17:H19"/>
+    <mergeCell ref="G17:G19"/>
+    <mergeCell ref="F17:F19"/>
     <mergeCell ref="E11:E16"/>
     <mergeCell ref="D11:D16"/>
     <mergeCell ref="C11:C16"/>
@@ -3330,16 +3338,6 @@
     <mergeCell ref="D17:D19"/>
     <mergeCell ref="C17:C19"/>
     <mergeCell ref="B17:B19"/>
-    <mergeCell ref="J17:J19"/>
-    <mergeCell ref="I17:I19"/>
-    <mergeCell ref="H17:H19"/>
-    <mergeCell ref="G17:G19"/>
-    <mergeCell ref="F17:F19"/>
-    <mergeCell ref="J11:J16"/>
-    <mergeCell ref="I11:I16"/>
-    <mergeCell ref="H11:H16"/>
-    <mergeCell ref="G11:G16"/>
-    <mergeCell ref="F11:F16"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3492,42 +3490,42 @@
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A11" s="54">
+      <c r="A11" s="58">
         <v>2</v>
       </c>
-      <c r="B11" s="52" t="s">
+      <c r="B11" s="56" t="s">
         <v>62</v>
       </c>
-      <c r="C11" s="52" t="s">
+      <c r="C11" s="56" t="s">
         <v>66</v>
       </c>
-      <c r="D11" s="52" t="s">
+      <c r="D11" s="56" t="s">
         <v>46</v>
       </c>
-      <c r="E11" s="50">
+      <c r="E11" s="52">
         <v>8</v>
       </c>
-      <c r="F11" s="58"/>
-      <c r="G11" s="58"/>
-      <c r="H11" s="58"/>
-      <c r="I11" s="50">
+      <c r="F11" s="54"/>
+      <c r="G11" s="54"/>
+      <c r="H11" s="54"/>
+      <c r="I11" s="52">
         <v>0</v>
       </c>
-      <c r="J11" s="56" t="s">
+      <c r="J11" s="50" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A12" s="55"/>
-      <c r="B12" s="53"/>
-      <c r="C12" s="53"/>
-      <c r="D12" s="53"/>
-      <c r="E12" s="51"/>
-      <c r="F12" s="59"/>
-      <c r="G12" s="59"/>
-      <c r="H12" s="59"/>
-      <c r="I12" s="51"/>
-      <c r="J12" s="57"/>
+      <c r="A12" s="59"/>
+      <c r="B12" s="57"/>
+      <c r="C12" s="57"/>
+      <c r="D12" s="57"/>
+      <c r="E12" s="53"/>
+      <c r="F12" s="55"/>
+      <c r="G12" s="55"/>
+      <c r="H12" s="55"/>
+      <c r="I12" s="53"/>
+      <c r="J12" s="51"/>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A13" s="37">
@@ -3738,16 +3736,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="E11:E12"/>
+    <mergeCell ref="D11:D12"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="A11:A12"/>
     <mergeCell ref="J11:J12"/>
     <mergeCell ref="I11:I12"/>
     <mergeCell ref="H11:H12"/>
     <mergeCell ref="F11:F12"/>
     <mergeCell ref="G11:G12"/>
-    <mergeCell ref="E11:E12"/>
-    <mergeCell ref="D11:D12"/>
-    <mergeCell ref="C11:C12"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="A11:A12"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
